--- a/Sprint 1/Sprint 1 Backlog.xlsx
+++ b/Sprint 1/Sprint 1 Backlog.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Sprint 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCDC7E4-9FC8-4A85-BD6A-564A09FD0294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Product Backlog Story</t>
   </si>
@@ -79,27 +88,18 @@
     <t>Patryk, Fraser, Tom</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Connection worked when running from java file, couldnt find driver when run via jsp file. Its taking longer than excepted</t>
   </si>
   <si>
     <t>As a client, I want a website to act as a front end for my web app</t>
   </si>
   <si>
-    <t>Fraser, Josh,Aditya</t>
-  </si>
-  <si>
     <t>Research how to integrate Java onto website</t>
   </si>
   <si>
     <t>Fraser</t>
   </si>
   <si>
-    <t>Select a template for CSS.</t>
-  </si>
-  <si>
     <t>Fraser, Josh</t>
   </si>
   <si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Implement search function based on Procedure code</t>
-  </si>
-  <si>
-    <t>Problem getting it to work when deployed as web app, app cant find driver to conenct to database</t>
   </si>
   <si>
     <t>Implement search function based on condition description</t>
@@ -180,38 +177,65 @@
   </si>
   <si>
     <t>Didn't take as long as expected</t>
+  </si>
+  <si>
+    <t>Implement search function based on price range</t>
+  </si>
+  <si>
+    <t>Item was added Friday morning, since we had some spare time</t>
+  </si>
+  <si>
+    <t>Design CSS stylesheet</t>
+  </si>
+  <si>
+    <t>Originally looked at templates, but decided to make our own</t>
+  </si>
+  <si>
+    <t>Original project format was outdated, so had to be changed</t>
+  </si>
+  <si>
+    <t>Fraser, Josh, Aditya, Patryk</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -239,121 +263,120 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -543,24 +566,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.14"/>
-    <col customWidth="1" min="10" max="10" width="35.0"/>
+    <col min="1" max="1" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,12 +620,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -613,12 +641,12 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -627,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -636,7 +664,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -661,12 +689,12 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -676,22 +704,24 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -701,7 +731,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -709,36 +739,38 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -750,15 +782,15 @@
       <c r="I8" s="14"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -769,70 +801,70 @@
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10">
         <v>0.5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>0.5</v>
       </c>
@@ -844,75 +876,73 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="8">
         <v>2.5</v>
       </c>
       <c r="G13" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>3.5</v>
@@ -922,10 +952,12 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="8"/>
@@ -938,15 +970,15 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -957,210 +989,206 @@
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10">
         <v>0.5</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="11"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10">
         <v>0.5</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I19" s="6"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6">
+        <v>0.5</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20">
-      <c r="A20" s="19"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="21">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.5</v>
+    <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8">
         <v>0.5</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="E24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>15</v>
@@ -1168,49 +1196,47 @@
       <c r="E27" s="8">
         <v>0.5</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" s="8">
         <v>0.5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>15</v>
@@ -1220,20 +1246,24 @@
       <c r="G29" s="8">
         <v>0.5</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>15</v>
@@ -1241,48 +1271,71 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+    <row r="31" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D19 D22:D30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D20 D23:D31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D19 D22:D30">
+  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D20 D23:D31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D19 D22:D30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D3:D7 D10:D15 D18:D20 D23:D31">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D7 D10:D15 D18:D19 D22:D30">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D7 D10:D15 D18:D20 D23:D31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Done,In progress,Not started"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>